--- a/nmadb/501225.xlsx
+++ b/nmadb/501225.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="12435" windowHeight="11820"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>Skljarevski HMGC study (3)</t>
-  </si>
-  <si>
-    <t>mean</t>
   </si>
   <si>
     <t>Harmful</t>
@@ -126,12 +123,15 @@
       <t xml:space="preserve"> change pain intensity from baseline</t>
     </r>
   </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,14 +196,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -225,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -299,7 +292,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -334,7 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,14 +501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
@@ -526,15 +517,15 @@
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -546,13 +537,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -572,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -592,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -612,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -633,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -653,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -673,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -693,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -713,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -733,7 +724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -757,7 +748,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -783,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -809,7 +800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -835,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -861,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -887,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -913,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -933,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -953,7 +944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -973,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -993,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1075,7 +1066,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="5" customFormat="1">
       <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
@@ -1095,7 +1086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="5" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
@@ -1117,7 +1108,7 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1137,7 +1128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1177,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$L1&lt;&gt;$O1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1214,24 +1205,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
